--- a/output/Seagrasses_shared_lost_genes.xlsx
+++ b/output/Seagrasses_shared_lost_genes.xlsx
@@ -455,7 +455,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>negative regulation of shoot apical meristem development</t>
+          <t>ATP synthesis coupled electron transport</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ATP synthesis coupled electron transport</t>
+          <t>negative regulation of catalytic activity</t>
         </is>
       </c>
     </row>
@@ -475,7 +475,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>negative regulation of catalytic activity</t>
+          <t>negative regulation of shoot apical meristem development</t>
         </is>
       </c>
     </row>
@@ -615,7 +615,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>modulation by host of viral transcription</t>
+          <t>positive regulation by host of viral transcription</t>
         </is>
       </c>
     </row>
@@ -625,7 +625,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>positive regulation by host of viral transcription</t>
+          <t>modulation by host of viral transcription</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4-hydroxyproline metabolic process</t>
+          <t>phytosphingosine biosynthetic process</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>phytosphingosine biosynthetic process</t>
+          <t>flavonol biosynthetic process</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>flavonol biosynthetic process</t>
+          <t>peptidyl-proline hydroxylation to 4-hydroxy-L-proline</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>peptidyl-proline hydroxylation to 4-hydroxy-L-proline</t>
+          <t>mitochondrial mRNA modification</t>
         </is>
       </c>
     </row>
@@ -775,7 +775,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>mitochondrial mRNA modification</t>
+          <t>positive regulation of protein glycosylation in Golgi</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>positive regulation of protein glycosylation in Golgi</t>
+          <t>4-hydroxyproline metabolic process</t>
         </is>
       </c>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pollen wall assembly</t>
+          <t>establishment of synaptic vesicle localization</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>transmitting tissue development</t>
+          <t>synaptic vesicle transport</t>
         </is>
       </c>
     </row>
@@ -865,7 +865,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>establishment of synaptic vesicle localization</t>
+          <t>pollen wall assembly</t>
         </is>
       </c>
     </row>
@@ -875,7 +875,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>synaptic vesicle transport</t>
+          <t>transmitting tissue development</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>uropod retraction</t>
+          <t>polysaccharide digestion</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>glial cell migration</t>
+          <t>uropod retraction</t>
         </is>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>polysaccharide digestion</t>
+          <t>cellular response to paraquat</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>cellular response to paraquat</t>
+          <t>positive regulation of cell death</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>positive regulation of cell death</t>
+          <t>glial cell migration</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>regulation of retinoic acid receptor signaling pathway</t>
+          <t>positive regulation of transforming growth factor beta receptor signaling pathway</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>positive regulation of transforming growth factor beta receptor signaling pathway</t>
+          <t>regulation of retinoic acid receptor signaling pathway</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>regulation of protein phosphorylation</t>
+          <t>positive regulation of protein serine/threonine kinase activity</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>positive regulation of protein serine/threonine kinase activity</t>
+          <t>regulation of protein phosphorylation</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>histone acetylation</t>
+          <t>negative regulation of GTPase activity</t>
         </is>
       </c>
     </row>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>negative regulation of GTPase activity</t>
+          <t>histone acetylation</t>
         </is>
       </c>
     </row>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>3-methylbut-2-enoyl-CoA(4-) metabolic process</t>
+          <t>regulation of iron ion import into cell by regulation of transcription from RNA polymerase II promoter</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>isovaleryl-CoA(4-) catabolic process</t>
+          <t>3-methylbut-2-enoyl-CoA(4-) metabolic process</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2-methylbut-2-enoyl-CoA(4-) metabolic process</t>
+          <t>isovaleryl-CoA(4-) catabolic process</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2-methylbutanoyl-CoA(4-) catabolic process</t>
+          <t>2-methylbut-2-enoyl-CoA(4-) metabolic process</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>regulation of iron ion import into cell by regulation of transcription from RNA polymerase II promoter</t>
+          <t>2-methylbutanoyl-CoA(4-) catabolic process</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>bradykinin catabolic process</t>
+          <t>positive regulation of wound healing</t>
         </is>
       </c>
     </row>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>DNA duplex unwinding</t>
+          <t>bradykinin catabolic process</t>
         </is>
       </c>
     </row>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>arsenite transport</t>
+          <t>regulation of ethylene-activated signaling pathway</t>
         </is>
       </c>
     </row>
@@ -1625,7 +1625,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>positive regulation of wound healing</t>
+          <t>DNA duplex unwinding</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>microsporogenesis</t>
+          <t>arsenite transport</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>regulation of anthocyanin catabolic process</t>
+          <t>microsporogenesis</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>arsenate ion transmembrane transport</t>
+          <t>regulation of anthocyanin catabolic process</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>regulation of ethylene-activated signaling pathway</t>
+          <t>arsenate ion transmembrane transport</t>
         </is>
       </c>
     </row>

--- a/output/Seagrasses_shared_lost_genes.xlsx
+++ b/output/Seagrasses_shared_lost_genes.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B148"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -375,7 +375,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RNA modification</t>
+          <t>stomatal complex development</t>
         </is>
       </c>
     </row>
@@ -385,7 +385,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>response to jasmonic acid stimulus involved in jasmonic acid and ethylene-dependent systemic resistance</t>
+          <t>regulation of seedling development</t>
         </is>
       </c>
     </row>
@@ -395,7 +395,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>carpel formation</t>
+          <t>cristae formation</t>
         </is>
       </c>
     </row>
@@ -405,7 +405,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>synaptic vesicle docking</t>
+          <t>regulation of translational initiation</t>
         </is>
       </c>
     </row>
@@ -415,7 +415,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>calcium-ion regulated exocytosis</t>
+          <t>anther wall tapetum development</t>
         </is>
       </c>
     </row>
@@ -425,7 +425,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>synaptic vesicle targeting</t>
+          <t>microtubule polymerization</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>transposition,RNA-mediated</t>
+          <t>entrainment of circadian clock by photoperiod</t>
         </is>
       </c>
     </row>
@@ -445,7 +445,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ribosomal large subunit biogenesis</t>
+          <t>regulation of amino acid export</t>
         </is>
       </c>
     </row>
@@ -455,7 +455,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ATP synthesis coupled electron transport</t>
+          <t>electron transport coupled proton transport</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>negative regulation of catalytic activity</t>
+          <t>ATP synthesis coupled electron transport</t>
         </is>
       </c>
     </row>
@@ -475,7 +475,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>negative regulation of shoot apical meristem development</t>
+          <t>pollen wall assembly</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>positive regulation of viral transcription</t>
+          <t>cellular response to nickel ion</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>regulation of amino acid export</t>
+          <t>transmitting tissue development</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>regulation of translational initiation</t>
+          <t>ribosomal large subunit biogenesis</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>glucosinolate biosynthetic process</t>
+          <t>monoatomic cation transport</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>cyanidin 3-O-glucoside biosynthetic process</t>
+          <t>negative regulation of shoot apical meristem development</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>quercetin O-glucoside biosynthetic process</t>
+          <t>brassinosteroid metabolic process</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>kaempferol O-glucoside biosynthetic process</t>
+          <t>embryonic shoot morphogenesis</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>cellular response to nickel ion</t>
+          <t>N-terminal peptidyl-glycine N-myristoylation</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>proteolysis involved in cellular protein catabolic process</t>
+          <t>glucosinolate biosynthetic process</t>
         </is>
       </c>
     </row>
@@ -575,7 +575,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>cristae formation</t>
+          <t>cellulose biosynthetic process</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>entrainment of circadian clock by photoperiod</t>
+          <t>flavonol biosynthetic process</t>
         </is>
       </c>
     </row>
@@ -595,7 +595,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>cation transport</t>
+          <t>negative regulation of catalytic activity</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>modulation by host of symbiont transcription</t>
+          <t>jasmonic acid metabolic process</t>
         </is>
       </c>
     </row>
@@ -615,7 +615,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>positive regulation by host of viral transcription</t>
+          <t>mitochondrial mRNA modification</t>
         </is>
       </c>
     </row>
@@ -625,7 +625,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>modulation by host of viral transcription</t>
+          <t>regulation of pH</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>positive regulation of protein oligomerization</t>
+          <t>proteolysis</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>N-terminal peptidyl-glycine N-myristoylation</t>
+          <t>carpel formation</t>
         </is>
       </c>
     </row>
@@ -655,7 +655,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>embryonic shoot morphogenesis</t>
+          <t>response to jasmonic acid stimulus involved in jasmonic acid and ethylene-dependent systemic resistance</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>stomatal complex development</t>
+          <t>proteolysis involved in protein catabolic process</t>
         </is>
       </c>
     </row>
@@ -675,7 +675,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>regulation of pH</t>
+          <t>RNA phosphodiester bond hydrolysis</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>microtubule polymerization</t>
+          <t>transposition, RNA-mediated</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>proteolysis</t>
+          <t>RNA-templated DNA biosynthetic process</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>regulation of seedling development</t>
+          <t>nucleic acid phosphodiester bond hydrolysis</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>RNA-dependent DNA biosynthetic process</t>
+          <t>RNA modification</t>
         </is>
       </c>
     </row>
@@ -725,7 +725,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>cellulose biosynthetic process</t>
+          <t>response to other organism</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>phytosphingosine biosynthetic process</t>
+          <t>galactose metabolic process</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>flavonol biosynthetic process</t>
+          <t>defense response to oomycetes</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>peptidyl-proline hydroxylation to 4-hydroxy-L-proline</t>
+          <t>response to benzoic acid</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>mitochondrial mRNA modification</t>
+          <t>cellular response to paraquat</t>
         </is>
       </c>
     </row>
@@ -775,7 +775,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>positive regulation of protein glycosylation in Golgi</t>
+          <t>response to gravity</t>
         </is>
       </c>
     </row>
@@ -785,7 +785,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>jasmonic acid metabolic process</t>
+          <t>signal transduction</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4-hydroxyproline metabolic process</t>
+          <t>cGMP biosynthetic process</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>nucleic acid phosphodiester bond hydrolysis</t>
+          <t>chitin catabolic process</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>RNA phosphodiester bond hydrolysis</t>
+          <t>plastid DNA replication</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>electron transport coupled proton transport</t>
+          <t>thiosulfate transport</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>anther wall tapetum development</t>
+          <t>growth</t>
         </is>
       </c>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>establishment of synaptic vesicle localization</t>
+          <t>positive regulation of development, heterochronic</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>synaptic vesicle transport</t>
+          <t>ammonium transmembrane transport</t>
         </is>
       </c>
     </row>
@@ -865,7 +865,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pollen wall assembly</t>
+          <t>regulation of salicylic acid metabolic process</t>
         </is>
       </c>
     </row>
@@ -875,7 +875,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>transmitting tissue development</t>
+          <t>organic cation transport</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>brassinosteroid metabolic process</t>
+          <t>regulation of hydrogen peroxide metabolic process</t>
         </is>
       </c>
     </row>
@@ -895,7 +895,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>positive regulation of hydrogen peroxide metabolic process</t>
+          <t>positive regulation of cell death</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>regulation of hydrogen peroxide metabolic process</t>
+          <t>diterpenoid metabolic process</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>organic cation transport</t>
+          <t>cellular response to jasmonic acid stimulus</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>growth</t>
+          <t>protein polymerization</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>lateral root branching</t>
+          <t>regulation of hormone metabolic process</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>protein polymerization</t>
+          <t>lateral root branching</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>cellular response to jasmonic acid stimulus</t>
+          <t>positive regulation of hydrogen peroxide metabolic process</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>galactose metabolic process</t>
+          <t>secondary metabolite biosynthetic process</t>
         </is>
       </c>
     </row>
@@ -975,7 +975,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>diterpenoid metabolic process</t>
+          <t>RNA-mediated post-transcriptional gene silencing</t>
         </is>
       </c>
     </row>
@@ -985,7 +985,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>regulation of histone exchange</t>
+          <t>ubiquitin recycling</t>
         </is>
       </c>
     </row>
@@ -995,7 +995,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>positive regulation of development,heterochronic</t>
+          <t>regulation of anthocyanin catabolic process</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>regulation of vitamin D receptor signaling pathway</t>
+          <t>response to nematode</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>defense response to oomycetes</t>
+          <t>protein homotetramerization</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>response to gravity</t>
+          <t>cellular response to sucrose stimulus</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>regulation of hormone metabolic process</t>
+          <t>(1-&gt;3)-beta-D-glucan biosynthetic process</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>regulation of salicylic acid metabolic process</t>
+          <t>regulation of protein phosphorylation</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>polysaccharide digestion</t>
+          <t>microsporogenesis</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>uropod retraction</t>
+          <t>histone acetylation</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>secondary metabolite biosynthetic process</t>
+          <t>preprophase band assembly</t>
         </is>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>response to benzoic acid</t>
+          <t>intrinsic apoptotic signaling pathway</t>
         </is>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>cellular response to paraquat</t>
+          <t>positive regulation of nuclear-transcribed mRNA poly(A) tail shortening</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>positive regulation of cell death</t>
+          <t>mannosylation</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>glial cell migration</t>
+          <t>negative regulation of actin filament polymerization</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>thiosulfate transport</t>
+          <t>regulation of ethylene-activated signaling pathway</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>signal transduction</t>
+          <t>positive regulation of protein serine/threonine kinase activity</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>plastid DNA replication</t>
+          <t>negative regulation of GTPase activity</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>cGMP biosynthetic process</t>
+          <t>DNA duplex unwinding</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ammonium transmembrane transport</t>
+          <t>nucleotide-excision repair involved in interstrand cross-link repair</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NADH dehydrogenase complex (plastoquinone) assembly</t>
+          <t>maintenance of rDNA</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>cellular response to desiccation</t>
+          <t>nuclear migration along microfilament</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>chitin catabolic process</t>
+          <t>regulation of establishment of cell polarity</t>
         </is>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>response to other organism</t>
+          <t>oligosaccharide catabolic process</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>positive regulation of transforming growth factor beta receptor signaling pathway</t>
+          <t>microtubule-based movement</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>regulation of retinoic acid receptor signaling pathway</t>
+          <t>cellular response to sucrose starvation</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>isopentenyl adenine biosynthetic process</t>
+          <t>chromosome segregation</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>branched-chain amino acid catabolic process</t>
+          <t>plant-type cell wall organization or biogenesis</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>positive regulation of protein serine/threonine kinase activity</t>
+          <t>arsenate ion transmembrane transport</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>regulation of protein phosphorylation</t>
+          <t>arsenite transport</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>amyloid-beta clearance</t>
+          <t>inorganic ion transmembrane transport</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>cellular response to sucrose starvation</t>
+          <t>branched-chain amino acid catabolic process</t>
         </is>
       </c>
     </row>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>plant-type cell wall organization or biogenesis</t>
+          <t>response to chlorate</t>
         </is>
       </c>
     </row>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>microtubule-based movement</t>
+          <t>UV-damage excision repair</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>nuclear migration along microfilament</t>
+          <t>tetrahydrofolylpolyglutamate metabolic process</t>
         </is>
       </c>
     </row>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>chromosome segregation</t>
+          <t>vitamin biosynthetic process</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>mannosylation</t>
+          <t>regulation of DNA-templated DNA replication initiation</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>maintenance of rDNA</t>
+          <t>phylloquinone biosynthetic process</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>regulation of establishment of cell polarity</t>
+          <t>protein storage vacuole organization</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>negative regulation of GTPase activity</t>
+          <t>spermine biosynthetic process</t>
         </is>
       </c>
     </row>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>histone acetylation</t>
+          <t>vacuolar protein processing</t>
         </is>
       </c>
     </row>
@@ -1405,437 +1405,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>cellular response to sucrose stimulus</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106">
-        <v>105</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>preprophase band assembly</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107">
-        <v>106</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>tRNA (guanine-N7)-methylation</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108">
-        <v>107</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>intrinsic apoptotic signaling pathway</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109">
-        <v>108</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>regulation of iron ion import into cell by regulation of transcription from RNA polymerase II promoter</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110">
-        <v>109</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>3-methylbut-2-enoyl-CoA(4-) metabolic process</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111">
-        <v>110</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>isovaleryl-CoA(4-) catabolic process</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112">
-        <v>111</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2-methylbut-2-enoyl-CoA(4-) metabolic process</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113">
-        <v>112</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2-methylbutanoyl-CoA(4-) catabolic process</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114">
-        <v>113</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>response to nematode</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115">
-        <v>114</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>oligosaccharide catabolic process</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116">
-        <v>115</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>ubiquitin recycling</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117">
-        <v>116</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>(1-&gt;3)-beta-D-glucan biosynthetic process</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118">
-        <v>117</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>nucleotide-excision repair involved in interstrand cross-link repair</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119">
-        <v>118</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>protein homotetramerization</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120">
-        <v>119</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>inorganic ion transmembrane transport</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121">
-        <v>120</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>determination of adult lifespan</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122">
-        <v>121</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>positive regulation of wound healing</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123">
-        <v>122</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>negative regulation of actin filament polymerization</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124">
-        <v>123</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>nucleotide-excision repair,preincision complex stabilization</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125">
-        <v>124</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>bradykinin catabolic process</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126">
-        <v>125</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>regulation of ethylene-activated signaling pathway</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127">
-        <v>126</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>DNA duplex unwinding</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128">
-        <v>127</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>positive regulation of nuclear-transcribed mRNA catabolic process,deadenylation-dependent decay</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129">
-        <v>128</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>positive regulation of nuclear-transcribed mRNA poly(A) tail shortening</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130">
-        <v>129</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>arsenite transport</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131">
-        <v>130</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>microsporogenesis</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132">
-        <v>131</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>membrane protein proteolysis involved in retrograde protein transport,ER to cytosol</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133">
-        <v>132</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>insulin catabolic process</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134">
-        <v>133</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>regulation of anthocyanin catabolic process</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135">
-        <v>134</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>arsenate ion transmembrane transport</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136">
-        <v>135</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>post-transcriptional gene silencing by RNA</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137">
-        <v>136</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>axon guidance</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138">
-        <v>137</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>regulation of DNA-dependent DNA replication initiation</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139">
-        <v>138</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
           <t>cellular response to light stimulus</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140">
-        <v>139</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>spermine biosynthetic process</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141">
-        <v>140</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>phylloquinone biosynthetic process</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142">
-        <v>141</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>vitamin biosynthetic process</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143">
-        <v>142</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>cellular response to fructose stimulus</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144">
-        <v>143</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>tetrahydrofolylpolyglutamate metabolic process</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145">
-        <v>144</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>response to chlorate</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146">
-        <v>145</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>protein storage vacuole organization</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147">
-        <v>146</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>vacuolar protein processing</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148">
-        <v>147</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>UV-damage excision repair</t>
         </is>
       </c>
     </row>
